--- a/data/pca/factorExposure/factorExposure_2010-04-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-04-06.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01426008517447157</v>
+        <v>-0.01705473967745685</v>
       </c>
       <c r="C2">
-        <v>-0.007455231702777897</v>
+        <v>-0.0009977384787063675</v>
       </c>
       <c r="D2">
-        <v>0.01029268260949815</v>
+        <v>-0.008393685928414218</v>
       </c>
       <c r="E2">
-        <v>-0.01043721889414154</v>
+        <v>-8.266094092946052e-05</v>
       </c>
       <c r="F2">
-        <v>0.01479384749759101</v>
+        <v>-0.01011659854769635</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1195250714382396</v>
+        <v>-0.09309161021208279</v>
       </c>
       <c r="C4">
-        <v>0.07610453064172594</v>
+        <v>-0.01616699599795954</v>
       </c>
       <c r="D4">
-        <v>0.01269153371422687</v>
+        <v>-0.08470574413307132</v>
       </c>
       <c r="E4">
-        <v>0.007184947538470236</v>
+        <v>0.03111328363232424</v>
       </c>
       <c r="F4">
-        <v>-0.001095288493790516</v>
+        <v>0.03078615579452674</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1199417467476521</v>
+        <v>-0.1540717855559248</v>
       </c>
       <c r="C6">
-        <v>-0.00236339508516889</v>
+        <v>-0.02458393045050814</v>
       </c>
       <c r="D6">
-        <v>0.01318268807934037</v>
+        <v>0.02172545874867523</v>
       </c>
       <c r="E6">
-        <v>-0.03043064195019698</v>
+        <v>0.00853593420759468</v>
       </c>
       <c r="F6">
-        <v>-0.05377938560486389</v>
+        <v>0.0473131431247815</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07065552153432846</v>
+        <v>-0.05931325776320846</v>
       </c>
       <c r="C7">
-        <v>0.06178217398350798</v>
+        <v>0.0007874609125698988</v>
       </c>
       <c r="D7">
-        <v>0.04242499412237444</v>
+        <v>-0.0520294110546894</v>
       </c>
       <c r="E7">
-        <v>-0.02333094446665118</v>
+        <v>0.01530107838330596</v>
       </c>
       <c r="F7">
-        <v>0.03251472172465586</v>
+        <v>0.05015361598933199</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05364649709121478</v>
+        <v>-0.05815415329408755</v>
       </c>
       <c r="C8">
-        <v>0.03294609228297525</v>
+        <v>0.01316779781774682</v>
       </c>
       <c r="D8">
-        <v>0.02391768405893224</v>
+        <v>-0.0321426713806802</v>
       </c>
       <c r="E8">
-        <v>0.009088097336853351</v>
+        <v>0.01576823125937959</v>
       </c>
       <c r="F8">
-        <v>-0.02122579833800364</v>
+        <v>-0.02930945347295671</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08386354482458455</v>
+        <v>-0.0709144383651106</v>
       </c>
       <c r="C9">
-        <v>0.05757974784304388</v>
+        <v>-0.01217536009635491</v>
       </c>
       <c r="D9">
-        <v>0.01761319907107156</v>
+        <v>-0.08406341204440694</v>
       </c>
       <c r="E9">
-        <v>0.01589640149100452</v>
+        <v>0.02535648214733873</v>
       </c>
       <c r="F9">
-        <v>0.006170175946702574</v>
+        <v>0.05274352912631388</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1073871067607047</v>
+        <v>-0.09518726672797861</v>
       </c>
       <c r="C10">
-        <v>-0.1759925837727332</v>
+        <v>-0.0177273107980862</v>
       </c>
       <c r="D10">
-        <v>-0.013593584466189</v>
+        <v>0.1715944028247241</v>
       </c>
       <c r="E10">
-        <v>-0.01017202072418065</v>
+        <v>-0.04038792112472844</v>
       </c>
       <c r="F10">
-        <v>0.04019369227566651</v>
+        <v>-0.0536417196254614</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.07761872683883077</v>
+        <v>-0.08735631567026372</v>
       </c>
       <c r="C11">
-        <v>0.0549789541839811</v>
+        <v>-0.01161356182206336</v>
       </c>
       <c r="D11">
-        <v>0.03290311381644135</v>
+        <v>-0.1144921291503967</v>
       </c>
       <c r="E11">
-        <v>0.0201619414284161</v>
+        <v>0.04988445256842208</v>
       </c>
       <c r="F11">
-        <v>-0.01215779131534529</v>
+        <v>0.01976511862840912</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07933632126551614</v>
+        <v>-0.0918565617862972</v>
       </c>
       <c r="C12">
-        <v>0.07896483047432709</v>
+        <v>-0.009239497871674305</v>
       </c>
       <c r="D12">
-        <v>0.04529436585337886</v>
+        <v>-0.1233282579543925</v>
       </c>
       <c r="E12">
-        <v>0.0643168705321459</v>
+        <v>0.04900951999927106</v>
       </c>
       <c r="F12">
-        <v>0.01919673047400334</v>
+        <v>0.01988950297885835</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.02878448407554724</v>
+        <v>-0.04281785032049059</v>
       </c>
       <c r="C13">
-        <v>0.02949360801979777</v>
+        <v>-0.003796953434792189</v>
       </c>
       <c r="D13">
-        <v>0.004899880162449624</v>
+        <v>-0.04744162692143009</v>
       </c>
       <c r="E13">
-        <v>-0.01830576131413137</v>
+        <v>-0.01101358321755315</v>
       </c>
       <c r="F13">
-        <v>0.01574199697725267</v>
+        <v>0.01322653743654562</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.03855158083460243</v>
+        <v>-0.02231355453200819</v>
       </c>
       <c r="C14">
-        <v>0.02550632871349435</v>
+        <v>-0.01428096896610454</v>
       </c>
       <c r="D14">
-        <v>-0.0009419120191153081</v>
+        <v>-0.03138738332419873</v>
       </c>
       <c r="E14">
-        <v>0.02174059419650946</v>
+        <v>0.01892633761096232</v>
       </c>
       <c r="F14">
-        <v>0.000661254793461799</v>
+        <v>0.01795572326132978</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01632068295342557</v>
+        <v>-0.03148462168607309</v>
       </c>
       <c r="C15">
-        <v>0.008022237961329302</v>
+        <v>-0.00544081403411128</v>
       </c>
       <c r="D15">
-        <v>0.01124179801380629</v>
+        <v>-0.04491188231084349</v>
       </c>
       <c r="E15">
-        <v>-0.04439647655190851</v>
+        <v>0.009288237672585549</v>
       </c>
       <c r="F15">
-        <v>0.01917471671055663</v>
+        <v>0.0296472725971979</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08488241438775951</v>
+        <v>-0.0732610652834557</v>
       </c>
       <c r="C16">
-        <v>0.06428868135676975</v>
+        <v>-0.003090370261670852</v>
       </c>
       <c r="D16">
-        <v>0.0407885334436929</v>
+        <v>-0.1179775033158081</v>
       </c>
       <c r="E16">
-        <v>0.04309608643144135</v>
+        <v>0.06423990398390514</v>
       </c>
       <c r="F16">
-        <v>-0.006026674887227617</v>
+        <v>0.02846291951140727</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02357137503284961</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003474168318473247</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.01810491612392985</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.008856778899375467</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.0165358313163588</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04813160421324233</v>
+        <v>-0.06077201645655926</v>
       </c>
       <c r="C20">
-        <v>0.03399849590029248</v>
+        <v>-0.0006907292986467168</v>
       </c>
       <c r="D20">
-        <v>-0.01024944822486265</v>
+        <v>-0.07459671007847618</v>
       </c>
       <c r="E20">
-        <v>-0.02721547891677077</v>
+        <v>0.05598835059486916</v>
       </c>
       <c r="F20">
-        <v>0.01002211006410945</v>
+        <v>0.02692051130141793</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.0297677245310458</v>
+        <v>-0.03875876608383609</v>
       </c>
       <c r="C21">
-        <v>0.01220434593563951</v>
+        <v>-0.006909948343815238</v>
       </c>
       <c r="D21">
-        <v>-0.01992556463636738</v>
+        <v>-0.03641954120385724</v>
       </c>
       <c r="E21">
-        <v>0.01436394892626812</v>
+        <v>-0.007545451801877431</v>
       </c>
       <c r="F21">
-        <v>-0.01709595424702069</v>
+        <v>-0.02053145617330521</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.02850242221641651</v>
+        <v>-0.04260030971405215</v>
       </c>
       <c r="C22">
-        <v>-0.02223360211299275</v>
+        <v>-0.0004623466725617048</v>
       </c>
       <c r="D22">
-        <v>0.04281161107488863</v>
+        <v>-0.0007388273648765813</v>
       </c>
       <c r="E22">
-        <v>-0.6045459012258707</v>
+        <v>0.02969441834602369</v>
       </c>
       <c r="F22">
-        <v>0.1717366914194815</v>
+        <v>-0.008820778479765879</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.02873150429976171</v>
+        <v>-0.04265426576254838</v>
       </c>
       <c r="C23">
-        <v>-0.02168315446057747</v>
+        <v>-0.0004846831804895468</v>
       </c>
       <c r="D23">
-        <v>0.04415055252838455</v>
+        <v>-0.0008661782327942707</v>
       </c>
       <c r="E23">
-        <v>-0.607907359944569</v>
+        <v>0.0300555132763674</v>
       </c>
       <c r="F23">
-        <v>0.1706017983514547</v>
+        <v>-0.008369492991738569</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08532588698023463</v>
+        <v>-0.0796699915215246</v>
       </c>
       <c r="C24">
-        <v>0.06394909422440594</v>
+        <v>-0.003300411165017539</v>
       </c>
       <c r="D24">
-        <v>0.02684925910742989</v>
+        <v>-0.1186142610393151</v>
       </c>
       <c r="E24">
-        <v>0.03426281021814412</v>
+        <v>0.05191695534431175</v>
       </c>
       <c r="F24">
-        <v>0.0001779890722447543</v>
+        <v>0.02134856214295213</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.09017051724710444</v>
+        <v>-0.08455332511351735</v>
       </c>
       <c r="C25">
-        <v>0.06093341274074286</v>
+        <v>-0.005444171136574862</v>
       </c>
       <c r="D25">
-        <v>0.04038253924585915</v>
+        <v>-0.1071307391721453</v>
       </c>
       <c r="E25">
-        <v>0.06607162162662809</v>
+        <v>0.03495379014655305</v>
       </c>
       <c r="F25">
-        <v>0.01479421648820631</v>
+        <v>0.02895357808110001</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04142178016274561</v>
+        <v>-0.05446600041682757</v>
       </c>
       <c r="C26">
-        <v>-0.004816372378256445</v>
+        <v>-0.01490655708967191</v>
       </c>
       <c r="D26">
-        <v>-0.01559325924368465</v>
+        <v>-0.0377607900613899</v>
       </c>
       <c r="E26">
-        <v>-0.01296604689800426</v>
+        <v>0.02810278639626691</v>
       </c>
       <c r="F26">
-        <v>-0.017055261917201</v>
+        <v>-0.01229448324858972</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1179495218311349</v>
+        <v>-0.1436451417193706</v>
       </c>
       <c r="C28">
-        <v>-0.3186670181254719</v>
+        <v>-0.01606396928677569</v>
       </c>
       <c r="D28">
-        <v>0.00735442096087329</v>
+        <v>0.2657997258077257</v>
       </c>
       <c r="E28">
-        <v>0.03117821734952903</v>
+        <v>-0.0696839114199935</v>
       </c>
       <c r="F28">
-        <v>-0.01454801813532731</v>
+        <v>0.02960119364270374</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03235735698976771</v>
+        <v>-0.02716214791319873</v>
       </c>
       <c r="C29">
-        <v>0.01906202949596851</v>
+        <v>-0.008716837186852766</v>
       </c>
       <c r="D29">
-        <v>0.00754547449453945</v>
+        <v>-0.02992819548966608</v>
       </c>
       <c r="E29">
-        <v>0.03875452594954295</v>
+        <v>0.01183655831249948</v>
       </c>
       <c r="F29">
-        <v>0.03548451197782818</v>
+        <v>-0.013281584253381</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.1027475356855213</v>
+        <v>-0.06251432645432618</v>
       </c>
       <c r="C30">
-        <v>0.09379065972069556</v>
+        <v>-0.004537637532680373</v>
       </c>
       <c r="D30">
-        <v>0.05014567635528649</v>
+        <v>-0.08650579410564907</v>
       </c>
       <c r="E30">
-        <v>0.04806804490356562</v>
+        <v>0.02542056958067053</v>
       </c>
       <c r="F30">
-        <v>-0.04581243389231111</v>
+        <v>0.1042790160158416</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02988679697900141</v>
+        <v>-0.04827368367280874</v>
       </c>
       <c r="C31">
-        <v>0.03386811668487795</v>
+        <v>-0.01492119990496723</v>
       </c>
       <c r="D31">
-        <v>0.002621989820870196</v>
+        <v>-0.02788960701342325</v>
       </c>
       <c r="E31">
-        <v>-0.002317432785124434</v>
+        <v>0.0272917492365258</v>
       </c>
       <c r="F31">
-        <v>0.004889786441375348</v>
+        <v>-0.00527740002122029</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05898151662665548</v>
+        <v>-0.04812206594373731</v>
       </c>
       <c r="C32">
-        <v>0.0128702117509449</v>
+        <v>0.0002103530758383413</v>
       </c>
       <c r="D32">
-        <v>-0.01736661142131926</v>
+        <v>-0.03046391572644821</v>
       </c>
       <c r="E32">
-        <v>0.06715454398454274</v>
+        <v>0.02996581167192859</v>
       </c>
       <c r="F32">
-        <v>-0.07645653428504191</v>
+        <v>0.001191967461145327</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09255455190838704</v>
+        <v>-0.08981129627069723</v>
       </c>
       <c r="C33">
-        <v>0.0649889896542801</v>
+        <v>-0.008800578442735168</v>
       </c>
       <c r="D33">
-        <v>0.08287234779727737</v>
+        <v>-0.09574888016191731</v>
       </c>
       <c r="E33">
-        <v>0.02527540821615132</v>
+        <v>0.04748883908389202</v>
       </c>
       <c r="F33">
-        <v>0.009497431408391602</v>
+        <v>0.0411113274700418</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07272990402046549</v>
+        <v>-0.06732285539672532</v>
       </c>
       <c r="C34">
-        <v>0.05749533970958023</v>
+        <v>-0.01183463562722596</v>
       </c>
       <c r="D34">
-        <v>0.02912939111318084</v>
+        <v>-0.09861492426734303</v>
       </c>
       <c r="E34">
-        <v>0.03836406426644769</v>
+        <v>0.03637484840366359</v>
       </c>
       <c r="F34">
-        <v>0.005310594041113943</v>
+        <v>0.0386406074917906</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.009910164575667697</v>
+        <v>-0.02424719620067494</v>
       </c>
       <c r="C35">
-        <v>0.01624865527888922</v>
+        <v>-0.002462971768887051</v>
       </c>
       <c r="D35">
-        <v>0.004177488784805994</v>
+        <v>-0.01137916592623784</v>
       </c>
       <c r="E35">
-        <v>0.004751558550469323</v>
+        <v>0.01113644609619522</v>
       </c>
       <c r="F35">
-        <v>0.0166015284168714</v>
+        <v>0.008968794994208764</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02703476397277573</v>
+        <v>-0.02436283330558043</v>
       </c>
       <c r="C36">
-        <v>0.01380284726821068</v>
+        <v>-0.007246057696088574</v>
       </c>
       <c r="D36">
-        <v>0.007798123842641442</v>
+        <v>-0.03728268411164101</v>
       </c>
       <c r="E36">
-        <v>-0.007662167408307978</v>
+        <v>0.01809426736725901</v>
       </c>
       <c r="F36">
-        <v>-0.008110928273235139</v>
+        <v>0.01336081369780014</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.007862161935307111</v>
+        <v>-0.001531188139995447</v>
       </c>
       <c r="C38">
-        <v>0.008093308673929359</v>
+        <v>-0.0002486274082603121</v>
       </c>
       <c r="D38">
-        <v>0.007766196172069138</v>
+        <v>-0.0008265688947836373</v>
       </c>
       <c r="E38">
-        <v>-0.01918716993267636</v>
+        <v>0.001119241557532445</v>
       </c>
       <c r="F38">
-        <v>0.03372807055343924</v>
+        <v>-0.0009545811082988973</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.121685699169014</v>
+        <v>-0.1079021640877389</v>
       </c>
       <c r="C39">
-        <v>0.1117511923201418</v>
+        <v>-0.01681724732146154</v>
       </c>
       <c r="D39">
-        <v>0.07128447858193009</v>
+        <v>-0.1548632772550503</v>
       </c>
       <c r="E39">
-        <v>0.1446933753698042</v>
+        <v>0.0627909573741727</v>
       </c>
       <c r="F39">
-        <v>0.00065208474551397</v>
+        <v>0.02493703290478703</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.005376876039049888</v>
+        <v>-0.03714201046234479</v>
       </c>
       <c r="C40">
-        <v>0.02651858885120283</v>
+        <v>-0.007298445102921585</v>
       </c>
       <c r="D40">
-        <v>-0.01297948406413488</v>
+        <v>-0.03156762165183886</v>
       </c>
       <c r="E40">
-        <v>-0.06689026810314895</v>
+        <v>0.003597654494648305</v>
       </c>
       <c r="F40">
-        <v>0.03785366624374537</v>
+        <v>-0.01358161922287135</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02613399118121664</v>
+        <v>-0.02631020929403466</v>
       </c>
       <c r="C41">
-        <v>0.003297047201983271</v>
+        <v>-0.006579861284307222</v>
       </c>
       <c r="D41">
-        <v>-0.003485573606637519</v>
+        <v>-0.01164802318072876</v>
       </c>
       <c r="E41">
-        <v>0.006937093176734602</v>
+        <v>0.01273677539937497</v>
       </c>
       <c r="F41">
-        <v>0.008696172768882642</v>
+        <v>-0.008778307050308036</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03625179475220067</v>
+        <v>-0.04060898151575464</v>
       </c>
       <c r="C43">
-        <v>0.005347733820586413</v>
+        <v>-0.006753548724855011</v>
       </c>
       <c r="D43">
-        <v>0.01731733986490028</v>
+        <v>-0.02091453983601339</v>
       </c>
       <c r="E43">
-        <v>0.00309849990088919</v>
+        <v>0.02488480070935831</v>
       </c>
       <c r="F43">
-        <v>-0.002011291995832299</v>
+        <v>-0.01321963790363644</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1250495112833667</v>
+        <v>-0.07597715705200221</v>
       </c>
       <c r="C44">
-        <v>0.1401127981724721</v>
+        <v>-0.02181325524295094</v>
       </c>
       <c r="D44">
-        <v>0.06510661800291638</v>
+        <v>-0.09446949698670593</v>
       </c>
       <c r="E44">
-        <v>-0.09141645467605507</v>
+        <v>0.07635772436439998</v>
       </c>
       <c r="F44">
-        <v>0.1108919675475057</v>
+        <v>0.1847723287055113</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01736921814125775</v>
+        <v>-0.02222150591797019</v>
       </c>
       <c r="C46">
-        <v>-0.01788452274409814</v>
+        <v>-0.003804933845756537</v>
       </c>
       <c r="D46">
-        <v>0.02045445355350939</v>
+        <v>-0.0119355937081544</v>
       </c>
       <c r="E46">
-        <v>-0.02369070478772318</v>
+        <v>0.02367682912616829</v>
       </c>
       <c r="F46">
-        <v>0.02884590909537101</v>
+        <v>0.0002352998573786469</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.03628528448406725</v>
+        <v>-0.05188660603391882</v>
       </c>
       <c r="C47">
-        <v>0.02376488332867299</v>
+        <v>-0.00324245134992262</v>
       </c>
       <c r="D47">
-        <v>-0.0032543827924109</v>
+        <v>-0.01391576263850015</v>
       </c>
       <c r="E47">
-        <v>0.007268422154992557</v>
+        <v>0.02211090146903727</v>
       </c>
       <c r="F47">
-        <v>0.0006373657127314105</v>
+        <v>-0.04449548742456295</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.0433961024218326</v>
+        <v>-0.04750984096202977</v>
       </c>
       <c r="C48">
-        <v>0.02316802686772096</v>
+        <v>-0.00279165132229096</v>
       </c>
       <c r="D48">
-        <v>0.009899695117894599</v>
+        <v>-0.04898004281840846</v>
       </c>
       <c r="E48">
-        <v>0.008768738269162104</v>
+        <v>-0.00396753761603588</v>
       </c>
       <c r="F48">
-        <v>0.01908423601131963</v>
+        <v>0.01033910471039159</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2281095531876319</v>
+        <v>-0.2026175439324545</v>
       </c>
       <c r="C49">
-        <v>-0.006752794484526685</v>
+        <v>-0.01769069267450631</v>
       </c>
       <c r="D49">
-        <v>-0.04316154474915971</v>
+        <v>0.01080075680964554</v>
       </c>
       <c r="E49">
-        <v>0.01994197204921734</v>
+        <v>0.0325701060076062</v>
       </c>
       <c r="F49">
-        <v>0.04118108521585565</v>
+        <v>0.03033269221580377</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03835387435038437</v>
+        <v>-0.04818188191402651</v>
       </c>
       <c r="C50">
-        <v>0.02869756510326593</v>
+        <v>-0.01105730031562337</v>
       </c>
       <c r="D50">
-        <v>-0.006101170671340636</v>
+        <v>-0.02662863012737558</v>
       </c>
       <c r="E50">
-        <v>0.01053383805248562</v>
+        <v>0.02983270514207653</v>
       </c>
       <c r="F50">
-        <v>0.00370667366072848</v>
+        <v>0.008703649350987011</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01238963884239473</v>
+        <v>-0.002268164376644927</v>
       </c>
       <c r="C51">
-        <v>-0.01735093795528753</v>
+        <v>-0.0005674923288994569</v>
       </c>
       <c r="D51">
-        <v>0.01483010488963841</v>
+        <v>0.002430182739688378</v>
       </c>
       <c r="E51">
-        <v>-0.006936085747445636</v>
+        <v>-0.0001517037230553906</v>
       </c>
       <c r="F51">
-        <v>0.0107893693575624</v>
+        <v>0.004760770234552958</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.102460911863208</v>
+        <v>-0.1447372686211625</v>
       </c>
       <c r="C52">
-        <v>0.08001010905561971</v>
+        <v>-0.01373892648877135</v>
       </c>
       <c r="D52">
-        <v>0.01558975354968972</v>
+        <v>-0.05163025717122309</v>
       </c>
       <c r="E52">
-        <v>0.01012269619549186</v>
+        <v>0.02429106082331164</v>
       </c>
       <c r="F52">
-        <v>0.01566458710668548</v>
+        <v>0.03341556119529469</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1614767178160336</v>
+        <v>-0.1741853352666887</v>
       </c>
       <c r="C53">
-        <v>0.04032368444149702</v>
+        <v>-0.01655766738770691</v>
       </c>
       <c r="D53">
-        <v>0.01161561080503491</v>
+        <v>-0.01180879987809347</v>
       </c>
       <c r="E53">
-        <v>-0.02266086091945268</v>
+        <v>0.03538394232346431</v>
       </c>
       <c r="F53">
-        <v>0.03479706173587963</v>
+        <v>0.06615921597931217</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.04997110356788296</v>
+        <v>-0.02142815017267668</v>
       </c>
       <c r="C54">
-        <v>0.04295387118892748</v>
+        <v>-0.01235044546479227</v>
       </c>
       <c r="D54">
-        <v>0.004126743222734256</v>
+        <v>-0.03289166866400957</v>
       </c>
       <c r="E54">
-        <v>-0.0235447262563594</v>
+        <v>0.01613511738075904</v>
       </c>
       <c r="F54">
-        <v>0.008688232205476255</v>
+        <v>-0.006259972892699573</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08567914346689197</v>
+        <v>-0.1142691109889038</v>
       </c>
       <c r="C55">
-        <v>0.0338158949646636</v>
+        <v>-0.01546161274000215</v>
       </c>
       <c r="D55">
-        <v>0.06263569551780292</v>
+        <v>-0.01104405236265624</v>
       </c>
       <c r="E55">
-        <v>0.02596231158791695</v>
+        <v>0.03020340906684316</v>
       </c>
       <c r="F55">
-        <v>0.01936763776123223</v>
+        <v>0.04452479277192583</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1564485146930661</v>
+        <v>-0.177913552736007</v>
       </c>
       <c r="C56">
-        <v>0.05655761171615623</v>
+        <v>-0.01402529883515634</v>
       </c>
       <c r="D56">
-        <v>0.02471053115671128</v>
+        <v>-0.007448004124717697</v>
       </c>
       <c r="E56">
-        <v>0.0112271268946702</v>
+        <v>0.03932419454458962</v>
       </c>
       <c r="F56">
-        <v>0.05997081352161364</v>
+        <v>0.04156777682250358</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04820180193342954</v>
+        <v>-0.04645284333431213</v>
       </c>
       <c r="C58">
-        <v>0.02417086321989655</v>
+        <v>-0.001581317234954653</v>
       </c>
       <c r="D58">
-        <v>-0.01042693053790288</v>
+        <v>-0.06602700264754703</v>
       </c>
       <c r="E58">
-        <v>-0.05107871310496826</v>
+        <v>0.02424208443471414</v>
       </c>
       <c r="F58">
-        <v>0.02668492811136581</v>
+        <v>-0.04367725644600504</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1807571557593413</v>
+        <v>-0.1725845808544521</v>
       </c>
       <c r="C59">
-        <v>-0.2512518401457039</v>
+        <v>-0.01697104093438753</v>
       </c>
       <c r="D59">
-        <v>0.02990827146436791</v>
+        <v>0.2233140090862865</v>
       </c>
       <c r="E59">
-        <v>0.04158386001967043</v>
+        <v>-0.0494702803907808</v>
       </c>
       <c r="F59">
-        <v>0.00780982740757803</v>
+        <v>-0.03258021910639314</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2658948182570522</v>
+        <v>-0.236145029500597</v>
       </c>
       <c r="C60">
-        <v>0.170323180248639</v>
+        <v>0.003984125824572206</v>
       </c>
       <c r="D60">
-        <v>-0.02799764082588283</v>
+        <v>-0.04767072617494456</v>
       </c>
       <c r="E60">
-        <v>0.06546975472899033</v>
+        <v>0.007197283134676136</v>
       </c>
       <c r="F60">
-        <v>0.1773275678352576</v>
+        <v>-0.03118140377261126</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1097938590146981</v>
+        <v>-0.08287478173248096</v>
       </c>
       <c r="C61">
-        <v>0.06095417552066439</v>
+        <v>-0.01303619544478259</v>
       </c>
       <c r="D61">
-        <v>0.05375890183499878</v>
+        <v>-0.1141305398659569</v>
       </c>
       <c r="E61">
-        <v>0.08675871416967208</v>
+        <v>0.04293414510987574</v>
       </c>
       <c r="F61">
-        <v>0.02613477438645478</v>
+        <v>0.01309892688581872</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.155304885524695</v>
+        <v>-0.1703341566112258</v>
       </c>
       <c r="C62">
-        <v>0.0466302314785982</v>
+        <v>-0.01779548905419584</v>
       </c>
       <c r="D62">
-        <v>0.02727953110308451</v>
+        <v>-0.01161660316377354</v>
       </c>
       <c r="E62">
-        <v>-0.00512133900729725</v>
+        <v>0.03636703516747046</v>
       </c>
       <c r="F62">
-        <v>0.05222122095720511</v>
+        <v>0.0224817221093919</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.03747438469402094</v>
+        <v>-0.04237453912497263</v>
       </c>
       <c r="C63">
-        <v>-0.005738943591390737</v>
+        <v>-0.00296772531105798</v>
       </c>
       <c r="D63">
-        <v>0.009058759762883204</v>
+        <v>-0.05191599144211931</v>
       </c>
       <c r="E63">
-        <v>0.001609654236927409</v>
+        <v>0.02276146394246669</v>
       </c>
       <c r="F63">
-        <v>-0.04419575121398241</v>
+        <v>0.004807592449303679</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09622678081772086</v>
+        <v>-0.1118531614628642</v>
       </c>
       <c r="C64">
-        <v>0.02360859095671625</v>
+        <v>-0.01122274367086398</v>
       </c>
       <c r="D64">
-        <v>0.005731529260679279</v>
+        <v>-0.04371999707847335</v>
       </c>
       <c r="E64">
-        <v>0.006950109963829791</v>
+        <v>0.0207363073933168</v>
       </c>
       <c r="F64">
-        <v>0.06689638110013542</v>
+        <v>0.02534735836961118</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1112185883550279</v>
+        <v>-0.1455185159494465</v>
       </c>
       <c r="C65">
-        <v>-0.007581320157144412</v>
+        <v>-0.03119432084616289</v>
       </c>
       <c r="D65">
-        <v>0.007898793981139076</v>
+        <v>0.04277972793440735</v>
       </c>
       <c r="E65">
-        <v>0.005855641099391034</v>
+        <v>-0.001154985049757268</v>
       </c>
       <c r="F65">
-        <v>-0.05777318229935727</v>
+        <v>0.04820341144920659</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1369255300667336</v>
+        <v>-0.1290709701371457</v>
       </c>
       <c r="C66">
-        <v>0.1178411348070437</v>
+        <v>-0.01465712812571401</v>
       </c>
       <c r="D66">
-        <v>0.06902811571971014</v>
+        <v>-0.1423445734250966</v>
       </c>
       <c r="E66">
-        <v>0.1181410848371838</v>
+        <v>0.06943087453143644</v>
       </c>
       <c r="F66">
-        <v>0.01534451984214825</v>
+        <v>0.03033866408072871</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06467840165030841</v>
+        <v>-0.06209605927973069</v>
       </c>
       <c r="C67">
-        <v>0.04222044641089686</v>
+        <v>-0.003256524292917193</v>
       </c>
       <c r="D67">
-        <v>0.09176795584857923</v>
+        <v>-0.05316461551787326</v>
       </c>
       <c r="E67">
-        <v>-0.0182397610558657</v>
+        <v>0.01749810892363341</v>
       </c>
       <c r="F67">
-        <v>0.02502104979597703</v>
+        <v>-0.04111091918885842</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1034944778220152</v>
+        <v>-0.1169271682474411</v>
       </c>
       <c r="C68">
-        <v>-0.2648920452366664</v>
+        <v>-0.02680808936911911</v>
       </c>
       <c r="D68">
-        <v>-0.00612430807778711</v>
+        <v>0.2615130890682186</v>
       </c>
       <c r="E68">
-        <v>0.04021240145138127</v>
+        <v>-0.08783198681036732</v>
       </c>
       <c r="F68">
-        <v>-0.03559093225291363</v>
+        <v>0.03286572684772848</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03230709637756631</v>
+        <v>-0.03945552621158101</v>
       </c>
       <c r="C69">
-        <v>-0.00718160187056443</v>
+        <v>-0.0009788285670703962</v>
       </c>
       <c r="D69">
-        <v>0.03165804848619453</v>
+        <v>-0.009493280384411445</v>
       </c>
       <c r="E69">
-        <v>-0.0007640559828881831</v>
+        <v>0.02418989631816217</v>
       </c>
       <c r="F69">
-        <v>0.01667411271144936</v>
+        <v>-0.01056126601173588</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03299944406824486</v>
+        <v>-0.06267102747776118</v>
       </c>
       <c r="C70">
-        <v>-0.007099752518735743</v>
+        <v>0.02841075322155892</v>
       </c>
       <c r="D70">
-        <v>0.04372775878208034</v>
+        <v>-0.02987113293467554</v>
       </c>
       <c r="E70">
-        <v>0.03788252676953222</v>
+        <v>-0.05134955339690199</v>
       </c>
       <c r="F70">
-        <v>0.03847657860549837</v>
+        <v>-0.2754084274430213</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1216804713381182</v>
+        <v>-0.1362892982283168</v>
       </c>
       <c r="C71">
-        <v>-0.2850723217085086</v>
+        <v>-0.03103625196570299</v>
       </c>
       <c r="D71">
-        <v>0.009428192997691509</v>
+        <v>0.2765424979072947</v>
       </c>
       <c r="E71">
-        <v>0.03196476593285927</v>
+        <v>-0.09634383833263746</v>
       </c>
       <c r="F71">
-        <v>0.01223214302630324</v>
+        <v>0.03891584177881783</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.144723373540038</v>
+        <v>-0.1408852321450768</v>
       </c>
       <c r="C72">
-        <v>0.01108081935387197</v>
+        <v>-0.02465870912573581</v>
       </c>
       <c r="D72">
-        <v>0.003481526842943174</v>
+        <v>-0.004800517380717234</v>
       </c>
       <c r="E72">
-        <v>-0.0141323667066259</v>
+        <v>0.04523746207330676</v>
       </c>
       <c r="F72">
-        <v>-0.006566780801442984</v>
+        <v>0.02405639661409561</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2246519244835141</v>
+        <v>-0.203322697835816</v>
       </c>
       <c r="C73">
-        <v>0.03174324317331579</v>
+        <v>-0.0117508977613767</v>
       </c>
       <c r="D73">
-        <v>0.05954468774890245</v>
+        <v>-0.01597165956282102</v>
       </c>
       <c r="E73">
-        <v>0.06311787950238955</v>
+        <v>0.06300435708729507</v>
       </c>
       <c r="F73">
-        <v>0.1151818809868991</v>
+        <v>0.0319727257228288</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1194294673328518</v>
+        <v>-0.09485299376821303</v>
       </c>
       <c r="C74">
-        <v>0.06063572610003541</v>
+        <v>-0.01224149485538469</v>
       </c>
       <c r="D74">
-        <v>0.03623094695149443</v>
+        <v>-0.0205852665632342</v>
       </c>
       <c r="E74">
-        <v>-0.006137497569653777</v>
+        <v>0.04829287792971645</v>
       </c>
       <c r="F74">
-        <v>0.02492014419361754</v>
+        <v>0.04870356443987461</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1172097375037981</v>
+        <v>-0.1297700146266732</v>
       </c>
       <c r="C75">
-        <v>0.05582847262944586</v>
+        <v>-0.02648076873783815</v>
       </c>
       <c r="D75">
-        <v>0.01140682029663161</v>
+        <v>-0.03420355806078615</v>
       </c>
       <c r="E75">
-        <v>-0.009877354844876554</v>
+        <v>0.06044686079953637</v>
       </c>
       <c r="F75">
-        <v>-0.0006271491476170059</v>
+        <v>0.01355651893339901</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.02209582330735593</v>
+        <v>-0.003876523076109194</v>
       </c>
       <c r="C76">
-        <v>-0.01852146741105345</v>
+        <v>-0.0009179851855137095</v>
       </c>
       <c r="D76">
-        <v>0.01309166952294387</v>
+        <v>0.002996913513478494</v>
       </c>
       <c r="E76">
-        <v>0.01021660405007276</v>
+        <v>0.0002906728393181223</v>
       </c>
       <c r="F76">
-        <v>0.0174043346813454</v>
+        <v>0.004036447489376279</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06539955103073526</v>
+        <v>-0.07783155168304381</v>
       </c>
       <c r="C77">
-        <v>0.06181698729846573</v>
+        <v>-0.0090801068689868</v>
       </c>
       <c r="D77">
-        <v>-0.01926483804386547</v>
+        <v>-0.116823377617764</v>
       </c>
       <c r="E77">
-        <v>-0.004907869092246029</v>
+        <v>0.03853934944917354</v>
       </c>
       <c r="F77">
-        <v>0.0577707177879078</v>
+        <v>0.03138093780415618</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1182243246282129</v>
+        <v>-0.1043489019414477</v>
       </c>
       <c r="C78">
-        <v>0.04249570969283839</v>
+        <v>-0.04062722054920821</v>
       </c>
       <c r="D78">
-        <v>0.100933517151393</v>
+        <v>-0.115775465678898</v>
       </c>
       <c r="E78">
-        <v>-0.3287522637609675</v>
+        <v>0.08105576070033688</v>
       </c>
       <c r="F78">
-        <v>-0.3035951507618068</v>
+        <v>0.06988641981981188</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1361555003713168</v>
+        <v>-0.1642656516730921</v>
       </c>
       <c r="C79">
-        <v>0.05210764356984209</v>
+        <v>-0.02049059137492688</v>
       </c>
       <c r="D79">
-        <v>-0.007354473200681488</v>
+        <v>-0.01943414668958669</v>
       </c>
       <c r="E79">
-        <v>-0.0005766826036443662</v>
+        <v>0.04925617219360653</v>
       </c>
       <c r="F79">
-        <v>0.02608949917939523</v>
+        <v>0.004618771222299678</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07476895302259293</v>
+        <v>-0.08041963206062638</v>
       </c>
       <c r="C80">
-        <v>0.06964894532096523</v>
+        <v>0.0009083757794959052</v>
       </c>
       <c r="D80">
-        <v>0.07351921074080577</v>
+        <v>-0.05759495440515607</v>
       </c>
       <c r="E80">
-        <v>0.02908315552614636</v>
+        <v>0.03712534914937035</v>
       </c>
       <c r="F80">
-        <v>0.01684972094873188</v>
+        <v>-0.01633428892595722</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1389338486701011</v>
+        <v>-0.1234870622419947</v>
       </c>
       <c r="C81">
-        <v>0.07052310879077948</v>
+        <v>-0.03036434727195963</v>
       </c>
       <c r="D81">
-        <v>0.02073255924273028</v>
+        <v>-0.01852222243590107</v>
       </c>
       <c r="E81">
-        <v>-0.007676270669786934</v>
+        <v>0.05969610274786677</v>
       </c>
       <c r="F81">
-        <v>0.02109900318217051</v>
+        <v>0.006041912338254023</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1586985399954761</v>
+        <v>-0.1645288764658529</v>
       </c>
       <c r="C82">
-        <v>0.04948259136212382</v>
+        <v>-0.02211940047432457</v>
       </c>
       <c r="D82">
-        <v>0.03272015764951825</v>
+        <v>-0.01348997151987925</v>
       </c>
       <c r="E82">
-        <v>0.02875707486638535</v>
+        <v>0.0355911574285867</v>
       </c>
       <c r="F82">
-        <v>0.04096562514687063</v>
+        <v>0.06698336200498022</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08749784092275721</v>
+        <v>-0.06261154737504948</v>
       </c>
       <c r="C83">
-        <v>0.1229965648861736</v>
+        <v>-0.003181676507844824</v>
       </c>
       <c r="D83">
-        <v>-0.009233520258035364</v>
+        <v>-0.05071793516263944</v>
       </c>
       <c r="E83">
-        <v>-0.02776283599356392</v>
+        <v>0.005244468236542819</v>
       </c>
       <c r="F83">
-        <v>-0.01783787558881701</v>
+        <v>-0.0428463404657568</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06343266283097816</v>
+        <v>-0.0591991319233787</v>
       </c>
       <c r="C84">
-        <v>-0.01989969977373876</v>
+        <v>-0.01089905053718886</v>
       </c>
       <c r="D84">
-        <v>-0.01741425262160699</v>
+        <v>-0.06442028691592235</v>
       </c>
       <c r="E84">
-        <v>0.0654102590910713</v>
+        <v>0.003288713922405631</v>
       </c>
       <c r="F84">
-        <v>0.06015702516592242</v>
+        <v>0.01119346413617598</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1252393474042109</v>
+        <v>-0.1391633850992491</v>
       </c>
       <c r="C85">
-        <v>0.03976450912827282</v>
+        <v>-0.02611477497538017</v>
       </c>
       <c r="D85">
-        <v>0.01390003373892851</v>
+        <v>-0.01517754092352922</v>
       </c>
       <c r="E85">
-        <v>-6.950585287894679e-05</v>
+        <v>0.04124396118381846</v>
       </c>
       <c r="F85">
-        <v>0.04408516413505956</v>
+        <v>0.04548598623033101</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1638839463355612</v>
+        <v>-0.09511834209658028</v>
       </c>
       <c r="C86">
-        <v>0.09966673253807591</v>
+        <v>0.006881473304036583</v>
       </c>
       <c r="D86">
-        <v>-0.9399670822028695</v>
+        <v>-0.02246466551264246</v>
       </c>
       <c r="E86">
-        <v>-0.05425102651688068</v>
+        <v>0.1497852774004943</v>
       </c>
       <c r="F86">
-        <v>-0.04349045774341317</v>
+        <v>-0.8694405439352859</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1229386508711887</v>
+        <v>-0.09617413569281216</v>
       </c>
       <c r="C87">
-        <v>0.1216013885522113</v>
+        <v>-0.02223894379707134</v>
       </c>
       <c r="D87">
-        <v>0.01426423037435895</v>
+        <v>-0.08945087290415356</v>
       </c>
       <c r="E87">
-        <v>0.001332394566642168</v>
+        <v>-0.05308821226015831</v>
       </c>
       <c r="F87">
-        <v>0.04666254708665919</v>
+        <v>0.08181340918712607</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.0520476555408784</v>
+        <v>-0.06082040248529576</v>
       </c>
       <c r="C88">
-        <v>0.03202130500376411</v>
+        <v>-0.002805511854598346</v>
       </c>
       <c r="D88">
-        <v>0.02844820813326456</v>
+        <v>-0.05376056403948753</v>
       </c>
       <c r="E88">
-        <v>0.05712187183071975</v>
+        <v>0.02778260852814657</v>
       </c>
       <c r="F88">
-        <v>0.004885484526302693</v>
+        <v>0.008131981588890341</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.173282029866297</v>
+        <v>-0.1365896451217063</v>
       </c>
       <c r="C89">
-        <v>-0.3618612801611722</v>
+        <v>-0.009402244979510631</v>
       </c>
       <c r="D89">
-        <v>0.0005545032438234346</v>
+        <v>0.2557191902220288</v>
       </c>
       <c r="E89">
-        <v>-0.03836892797877999</v>
+        <v>-0.09242367631438238</v>
       </c>
       <c r="F89">
-        <v>0.01386693722468667</v>
+        <v>0.01760859133574044</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1312390455198055</v>
+        <v>-0.1473776856713506</v>
       </c>
       <c r="C90">
-        <v>-0.2713191973532</v>
+        <v>-0.02682495496313352</v>
       </c>
       <c r="D90">
-        <v>-0.002508893070569755</v>
+        <v>0.2663866654857558</v>
       </c>
       <c r="E90">
-        <v>0.04997776169355109</v>
+        <v>-0.1089552294525696</v>
       </c>
       <c r="F90">
-        <v>0.01437840277124857</v>
+        <v>0.02150497744325442</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.0823711986649116</v>
+        <v>-0.1191997018878072</v>
       </c>
       <c r="C91">
-        <v>0.0445384066286701</v>
+        <v>-0.01673169705054256</v>
       </c>
       <c r="D91">
-        <v>-0.009629138810046848</v>
+        <v>0.007544357858481414</v>
       </c>
       <c r="E91">
-        <v>-0.0006419210175342099</v>
+        <v>0.05697284482227387</v>
       </c>
       <c r="F91">
-        <v>0.03306059497305458</v>
+        <v>-0.01758192699072729</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1475771110955511</v>
+        <v>-0.150443284089965</v>
       </c>
       <c r="C92">
-        <v>-0.3161062492314649</v>
+        <v>-0.01858595679268094</v>
       </c>
       <c r="D92">
-        <v>-0.001172311525037961</v>
+        <v>0.295179702351064</v>
       </c>
       <c r="E92">
-        <v>-0.01415987221267987</v>
+        <v>-0.1048684048333665</v>
       </c>
       <c r="F92">
-        <v>-0.002856742467977565</v>
+        <v>0.01658271866456262</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1351058652451176</v>
+        <v>-0.1518235448821684</v>
       </c>
       <c r="C93">
-        <v>-0.3194247066385261</v>
+        <v>-0.02287866733787829</v>
       </c>
       <c r="D93">
-        <v>-0.02345982721219386</v>
+        <v>0.266288667537725</v>
       </c>
       <c r="E93">
-        <v>0.07749662809335699</v>
+        <v>-0.07596866877378031</v>
       </c>
       <c r="F93">
-        <v>0.02020756817539089</v>
+        <v>0.01571775419529824</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1398925322594697</v>
+        <v>-0.1330802064559255</v>
       </c>
       <c r="C94">
-        <v>0.05851992180001007</v>
+        <v>-0.02371179720969105</v>
       </c>
       <c r="D94">
-        <v>0.04866156863514355</v>
+        <v>-0.04579978597295802</v>
       </c>
       <c r="E94">
-        <v>-0.021264711180326</v>
+        <v>0.06082915744389505</v>
       </c>
       <c r="F94">
-        <v>0.02617306108846021</v>
+        <v>0.03179172235426236</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1106609981653315</v>
+        <v>-0.1250019390124505</v>
       </c>
       <c r="C95">
-        <v>0.02492165931294316</v>
+        <v>-0.004958770546686646</v>
       </c>
       <c r="D95">
-        <v>0.03253723201834169</v>
+        <v>-0.09018097195567616</v>
       </c>
       <c r="E95">
-        <v>-0.038448151873827</v>
+        <v>0.04431918269807723</v>
       </c>
       <c r="F95">
-        <v>0.04515438104731478</v>
+        <v>-0.01413634596350872</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.01352280638754164</v>
+        <v>-0.09859500735619678</v>
       </c>
       <c r="C96">
-        <v>0.001288959031100621</v>
+        <v>0.9888398665522428</v>
       </c>
       <c r="D96">
-        <v>-0.00191256931888938</v>
+        <v>0.03332692830711312</v>
       </c>
       <c r="E96">
-        <v>-0.007488548082742712</v>
+        <v>0.05838692374384622</v>
       </c>
       <c r="F96">
-        <v>-0.002513774458977558</v>
+        <v>0.04650906631636664</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1770592423173917</v>
+        <v>-0.1885035120724695</v>
       </c>
       <c r="C97">
-        <v>0.05630283188780029</v>
+        <v>0.01056930618690789</v>
       </c>
       <c r="D97">
-        <v>0.0581596266704458</v>
+        <v>0.008247043284412741</v>
       </c>
       <c r="E97">
-        <v>-0.1153453312312773</v>
+        <v>0.01780527401744415</v>
       </c>
       <c r="F97">
-        <v>-0.848785287761209</v>
+        <v>-0.1601787375932573</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2449836049641063</v>
+        <v>-0.205115890302893</v>
       </c>
       <c r="C98">
-        <v>0.01547472924419896</v>
+        <v>-0.007022745409112524</v>
       </c>
       <c r="D98">
-        <v>-0.01046622994973643</v>
+        <v>-0.009985005023648156</v>
       </c>
       <c r="E98">
-        <v>-0.08602356556762251</v>
+        <v>-0.09845798862800198</v>
       </c>
       <c r="F98">
-        <v>0.01983633203367215</v>
+        <v>-0.1112508815062604</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.04284333101803683</v>
+        <v>-0.05580963998217065</v>
       </c>
       <c r="C99">
-        <v>-0.01327022151910424</v>
+        <v>0.004020762701736459</v>
       </c>
       <c r="D99">
-        <v>0.03862332041404051</v>
+        <v>-0.03623549490562549</v>
       </c>
       <c r="E99">
-        <v>-0.02278576412782097</v>
+        <v>0.02710666664610561</v>
       </c>
       <c r="F99">
-        <v>0.01583250382463629</v>
+        <v>0.003439306234472896</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.02943192247782076</v>
+        <v>-0.1222207941084412</v>
       </c>
       <c r="C100">
-        <v>0.07374236987224365</v>
+        <v>0.0517727634939173</v>
       </c>
       <c r="D100">
-        <v>0.1338495885661786</v>
+        <v>-0.3498658113552642</v>
       </c>
       <c r="E100">
-        <v>0.05548684428472928</v>
+        <v>-0.8933174647950184</v>
       </c>
       <c r="F100">
-        <v>-0.02211121484480858</v>
+        <v>-0.07176787179250198</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03197949068177908</v>
+        <v>-0.02709490143502769</v>
       </c>
       <c r="C101">
-        <v>0.0194807052437982</v>
+        <v>-0.008723542206941697</v>
       </c>
       <c r="D101">
-        <v>0.008311918365159673</v>
+        <v>-0.02963458257605048</v>
       </c>
       <c r="E101">
-        <v>0.03948036439453548</v>
+        <v>0.01133207255637972</v>
       </c>
       <c r="F101">
-        <v>0.03524729643130622</v>
+        <v>-0.01509460569320686</v>
       </c>
     </row>
     <row r="102" spans="1:6">
